--- a/fortunella/gr/Fortunella GR .xlsx
+++ b/fortunella/gr/Fortunella GR .xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="125">
   <si>
     <t>Fortunella</t>
   </si>
@@ -34,7 +34,7 @@
     <t>για γρήγορη και αποτελεσματική απώλεια βάρους</t>
   </si>
   <si>
-    <t>ΈΩΣ ΚΑΙ 5 ΚΙΛΑ ΑΝΑ ΕΒΔΟΜΑΔΑ</t>
+    <t>ΕΩΣ ΚΑΙ 5 ΚΙΛΑ ΑΝΑ ΕΒΔΟΜΑΔΑ</t>
   </si>
   <si>
     <t>ΕΚΠΤΩΣΗ</t>
@@ -49,7 +49,7 @@
     <t>Επιτάχυνει  τον μεταβολισμο</t>
   </si>
   <si>
-    <t>Λιωνει  το σωματικό λίπος</t>
+    <t>Λιωνει το σωματικό λίπος</t>
   </si>
   <si>
     <t>Ενδυναμώνει και ενεργοποιεί την ενέργεια σας</t>
@@ -67,13 +67,13 @@
     <t>39€</t>
   </si>
   <si>
-    <t>Μέχρι το τέλος της προσφοράς μένουν:</t>
+    <t xml:space="preserve">Η ΠΡΟΣΦΟΡΑ ΛΗΓΕΙ ΣΕ:  </t>
   </si>
   <si>
     <t>:</t>
   </si>
   <si>
-    <t>Ωρες</t>
+    <t>Ώρες</t>
   </si>
   <si>
     <t>Λεπτά</t>
@@ -85,10 +85,10 @@
     <t>ΠΑΡΑΓΓΕΛΙΑ ΜΕ ΕΚΠΤΩΣΗ</t>
   </si>
   <si>
-    <t xml:space="preserve">Απόθεματα διαθέσιμα </t>
-  </si>
-  <si>
-    <t>10 κομμάτια</t>
+    <t xml:space="preserve">Διαθέσιμο απόθεμα: </t>
+  </si>
+  <si>
+    <t>10 τεμάχια</t>
   </si>
   <si>
     <t>Οφέλη φρούτου Fortunei</t>
@@ -97,7 +97,7 @@
     <t>Ο καρπός μεγαλώνει στη Νότια Ασία, ανάμεσα στην πλουσιότερη χλωρίδα του πλανήτη, όπου εδώ και καιρό φημίζεται για τις ιδιότητές του καθώς εδώ και δεκαετίες είναι δημοφιλής στον κόσμο. Αυτό το φρούτο συμβάλλει στη</t>
   </si>
   <si>
-    <t>Διάσπαση του σωματικού λίπους και μετατροπή σε ενέργεια.</t>
+    <t>Διάσπαση του σωματικού λίπους και μετατροπή του σε ενέργεια.</t>
   </si>
   <si>
     <t>Καταστροφη των  λιποκύτταρων</t>
@@ -118,7 +118,7 @@
     <t>Επαναφορά της φυσικής ισορροπίας στο σώμα.</t>
   </si>
   <si>
-    <t>Το Φρούτο Fortunei , είναι το κύριο συστατικό στα αδυνάτισμα Fortunella, αλλά όχι το μοναδικό . Κάθε ένα από τα συστατικά που απαρτίζουν το προϊόν -</t>
+    <t>Το Φρούτο Fortunei , είναι το κύριο συστατικό στο αδυνάτισμα Fortunella, αλλά όχι το μοναδικό . Κάθε ένα από τα συστατικά που απαρτίζουν το προϊόν -</t>
   </si>
   <si>
     <t>Χρησιμεύουν στη  θεραπεία για την απώλεια βάρους.</t>
@@ -160,10 +160,10 @@
     <t>Θα γίνετε όμορφοι, υγιείς και ενεργητικοί.</t>
   </si>
   <si>
-    <t>Οι άνθρωποι θα ποτίζουν με κομπλιμέντα .</t>
-  </si>
-  <si>
-    <t>Θα αρχίσετε να είστε περήφανοι για το σώμα σας.</t>
+    <t>Οι άνθρωποι θα σας ποτίζουν με κομπλιμέντα .</t>
+  </si>
+  <si>
+    <t>Θα είστε περήφανοι για το σώμα σας.</t>
   </si>
   <si>
     <t>Θα μπορέσετε να φορέσετε τα ρούχα που σας αρέσουν και όχι αυτά που κρύβουν καλύτερα τις ατέλειες της φιγούρας σας</t>
@@ -223,13 +223,13 @@
     <t>κυτταρίτιδα και ραγάδες που απομένουν μετά την απώλεια βάρους (σε αντίθεση με τις σκληρές δίαιτες, μετά την οποία ένα άτομο αντιμετωπίζει το πρόβλημα των ραγάδων και του χαλασμένου δέρματος)</t>
   </si>
   <si>
-    <t>κατασκευαστής του</t>
+    <t>Κατασκευαστής του</t>
   </si>
   <si>
     <t>- σταγόνες για απώλεια βάρους. Είναι κατάλληλες για όλους όσους προσεχουν την υγεία τους και θέλουν να βελτιώσουν  τη φιγούρα τους.</t>
   </si>
   <si>
-    <t>Η ισορροπημένη σύνθεση των «λιποδιαλυτών», των βιταμινών και των ανόργανων συστατικών διατηρεί την όρεξη υπό έλεγχο - σκέφτεστε λιγότερο για το φαγητό και συνεπως εχτε λιγότερες πιθανοτητες να   καταφευγετε στα σνακ. Τα φρούτα Fortunei ευθύνονται για τη διάσπαση των λιπών και τη μετατροπή τους σε ενέργεια. Και το εκχύλισμα πράσινου τσαγιού αποτρέπει την επανασυσσώρευση του. Δεν θα αισθανθείτε βλάβh κατά την απώλεια βάρους, θα τρέφετε με ενέργεια από τα δικά σας αποθέματα λίπους.</t>
+    <t>Η ισορροπημένη σύνθεση των «λιποδιαλυτών», των βιταμινών και των ανόργανων συστατικών διατηρεί την όρεξη υπό έλεγχο - σκέφτεστε λιγότερο για το φαγητό και συνεπως εχτε λιγότερες πιθανοτητες να   καταφευγετε στα σνακ. Τα φρούτα Fortunei ευθύνονται για τη διάσπαση των λιπών και τη μετατροπή τους σε ενέργεια. Και το εκχύλισμα πράσινου τσαγιού αποτρέπει την επανασυσσώρευση του. Δεν θα αισθανθείτε ατονία κατά την απώλεια βάρους, θα τρέφετε με ενέργεια από τα δικά σας αποθέματα λίπους.</t>
   </si>
   <si>
     <t xml:space="preserve">Είμαστε υπερήφανοι για την </t>
@@ -238,7 +238,7 @@
     <t>μοναδική φόρμουλα</t>
   </si>
   <si>
-    <t>της Fortunella, είναι το αποτέλεσμα επίπονης έρευνας και χρόνων ανάπτυξης.</t>
+    <t>της Fortunella, είναι το αποτέλεσμα επίμονης έρευνας και χρόνων ανάπτυξης.</t>
   </si>
   <si>
     <t>Πώς να καταναλωνετε τις σταγόνες Fortunella;</t>
@@ -256,34 +256,34 @@
     <t>Καθημερινή λήψη</t>
   </si>
   <si>
-    <t>15 σταγόνες 6 φορές την ημέρα (προσθέστε σε κάθε ρευστό που πίνετε )</t>
-  </si>
-  <si>
-    <t>Για να επιτύχετε τα μέγιστα αποτελέσματα, πρέπει αυστηρά</t>
-  </si>
-  <si>
-    <t>Παρακαλείστε να ακολουθειτε τις  οδηγίες</t>
+    <t>15 σταγόνες 6 φορές την ημέρα (προσθέστε σε κάθε υγρό που πίνετε )</t>
+  </si>
+  <si>
+    <t>Για να επιτύχετε το μέγιστο αποτελέσμα, πρέπει αυστηρά</t>
+  </si>
+  <si>
+    <t>να ακολουθείτε τις  οδηγίες</t>
   </si>
   <si>
     <t>κατά την εφαρμογή</t>
   </si>
   <si>
-    <t>χωρίς να χανετε</t>
-  </si>
-  <si>
-    <t>καμια δόση .</t>
-  </si>
-  <si>
-    <t>Δεν προτεινεται</t>
-  </si>
-  <si>
-    <t>Η αύξηση της δοσολογίας, καθώς αυτό δεν θα επιταχύνει τη διαδικασία απώλειας βάρους.</t>
-  </si>
-  <si>
-    <t>Απαντησεις</t>
-  </si>
-  <si>
-    <t>αγοραστων</t>
+    <t>χωρίς να χάνετε</t>
+  </si>
+  <si>
+    <t>καμία δόση.</t>
+  </si>
+  <si>
+    <t>Δεν προτείνεται</t>
+  </si>
+  <si>
+    <t>Η αύξηση της δοσολογίας, καθώς αυτό ΔΕΝ θα επιταχύνει τη διαδικασία απώλειας βάρους.</t>
+  </si>
+  <si>
+    <t>Κριτικές</t>
+  </si>
+  <si>
+    <t>πελατών</t>
   </si>
   <si>
     <t>Τατιάνα</t>
@@ -292,7 +292,7 @@
     <t>35 χρόνων</t>
   </si>
   <si>
-    <t>Θέλω να αφήσω ένα σχόλιο. Σκέφτηκα γενικά ότι όλα αυτά ήταν ψέματα. Επειδή σχετίζονται με αγορές στο Διαδίκτυο για κάποια μέσα για την απώλεια βάρους με αμφιβολία. Αλλά ο σύζυγός μου πρότεινε να δοκιμάσω το Fortunella. Η τιμή είναι εξαιρετική + γρήγορη παράδοση. Λοιπόν, σε γενικές γραμμές, παρηγγηλα  τις σταγόνες Fortunella από αυτόν τον ιστότοπο και τι νομίζετε; Μετά από μια εβδομάδα πρόσληψης, τα κιλά μου άρχισαν να με αποχαιρετούν . Ο σύζυγός μου ήταν πολύ χαρούμενος που με συμβούλεψε και μου ελεγε συνεχως τι θα το έκανα χωρίς αυτόν. Και ναι , πραγματικά))). Καταπληκτικες σταγόνες κοριτσια το λεω  χωρίς υπερβάλω . Είμαι εξαιρετικά χαρούμενη που όλα πήγαν καλά για μένα.</t>
+    <t>Θέλω να αφήσω ένα σχόλιο. Σκέφτηκα γενικά ότι όλα αυτά ήταν ψέματα. Επειδή σχετίζονται με αγορές στο Διαδίκτυο για κάποια μέσα για την απώλεια βάρους με αμφιβολία. Αλλά ο σύζυγός μου πρότεινε να δοκιμάσω το Fortunella. Η τιμή είναι εξαιρετική + γρήγορη παράδοση. Λοιπόν, σε γενικές γραμμές, παρήγγειλα τις σταγόνες Fortunella από αυτόν τον ιστότοπο και τι νομίζετε; Μετά από μια εβδομάδα λήψεις, τα κιλά μου άρχισαν να με αποχαιρετούν . Ο σύζυγός μου ήταν πολύ χαρούμενος που με συμβούλεψε και μου έλεγε συνεχώς τι θα το έκανα χωρίς αυτόν. Και ναι , πραγματικά))). Καταπληκτικές σταγόνες κορίτσια το λέω χωρίς να υπερβάλω . Είμαι εξαιρετικά χαρούμενη που όλα πήγαν καλά για μένα.</t>
   </si>
   <si>
     <t>Άννα</t>
@@ -301,7 +301,7 @@
     <t>25 χρονών</t>
   </si>
   <si>
-    <t>Με κάποιο τρόπο, απαρατήρητο για μένα, τους τελευταίους 4 μήνες έιχα βαλει  λιγα κιλα ,  6 κιλά. Από τη μία πλευρά, δεν φαίνεται τόσο τρομακτικό, αλλά από την άλλη πλευρά, όλες οι ραφές στα ρούχα μου σκίζονται  και δεν θέλω να αναπαλαιώσω  την ντουλάπα μου, γι 'αυτό αποφάσισα να χάσω βάρος. Διάβαζα σχόλια για πολύ καιρό και επέλεξα τις σταγόνες Fortunella. Κάπου μετά από τρεις ή τέσσερις ημέρες κατανάλωσης , ένιωσα ότι είχα περισσότερη ενέργεια και χωρίς πόθο για σνακ, ένιωθα καλά. Ένα μήνα αργότερα, έχασα 10 κιλά, δεν ήμουν ποτέ σε πιο  καλύτερο σώμα!</t>
+    <t>Με κάποιο τρόπο, απαρατήρητο για μένα, τους τελευταίους 4 μήνες είχα βάλει μερικά κιλά, 6 για την ακρίβεια. Από τη μία πλευρά, δεν φαίνεται τόσο τρομακτικό, αλλά από την άλλη πλευρά, όλες οι ραφές στα ρούχα μου σκίζονται και δεν θέλω να ανανεώσω την ντουλάπα μου, γι 'αυτό αποφάσισα να χάσω βάρος. Διάβαζα σχόλια για πολύ καιρό και επέλεξα τις σταγόνες Fortunella. Περίπου μετά από τρεις ή τέσσερις ημέρες κατανάλωσης , ένιωσα ότι είχα περισσότερη ενέργεια και χωρίς πόθο για σνακ, ένιωθα καλά. Ένα μήνα αργότερα, έχασα 10 κιλά, δεν ήμουν ποτέ σε καλύτερη κατάσταση!</t>
   </si>
   <si>
     <t>Αντζελίνα</t>
@@ -310,7 +310,7 @@
     <t>47 ετών</t>
   </si>
   <si>
-    <t>Οι σταγόνες του Fortunella από τις πρώτες μέρες μειώνουν την όρεξη. Δύο γεύματα την ημέρα είναι αρκετά για μένα τώρα. Το βράδυ δεν υπάρχει καθόλου πεινα, και ουτε υπάρχει κατάσταση κατάθλιψης όπως στις συνήθεις δίαιτες. Και τα ρούχα εφαρμόζουν υπέροχα. Εξαιρετικό φάρμακο ! Το συνιστώ!.</t>
+    <t>Οι σταγόνες του Fortunella από τις πρώτες μέρες μειώνουν την όρεξη. Δύο γεύματα την ημέρα είναι αρκετά για μένα τώρα. Το βράδυ δεν υπάρχει καθόλου πεινά, και ούτε υπάρχει το αίσθημα καταπίεσης όπως στις συνήθης δίαιτες. Και τα ρούχα εφαρμόζουν υπέροχα. Εξαιρετικό σκεύασμα! Το συνιστώ!.</t>
   </si>
   <si>
     <t>Πώς να παραγγείλετε;</t>
@@ -325,13 +325,13 @@
     <t>Κλήση</t>
   </si>
   <si>
-    <t>Ο μάνατζερ μας θα επικοινωνήσει μαζί σας για την ολοκλήρωση της παραγγελίας .</t>
-  </si>
-  <si>
-    <t>Διανομή</t>
-  </si>
-  <si>
-    <t>Παραδίδουμε την παραγγελία μέσω ταχυμεταφορών εντός 3-7 ημερών.</t>
+    <t>Ο υπάλληλος μας θα επικοινωνήσει μαζί σας για την ολοκλήρωση της παραγγελίας .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Παράδοση </t>
+  </si>
+  <si>
+    <t>Παραδίδουμε την παραγγελία μέσω ταχυμεταφορών εντός 1-3 ημερών.</t>
   </si>
   <si>
     <t>Πληρωμή</t>
@@ -349,13 +349,10 @@
     <t>Λιώνει το σωματικό λίπος</t>
   </si>
   <si>
-    <t>Τονώνει  και ενεργοποιεί</t>
-  </si>
-  <si>
-    <t>αποθέματα διαθέσιμα</t>
-  </si>
-  <si>
-    <t>Sport&amp;Fit, Sapfous 6, Athina 105 53, Athens, Greece</t>
+    <t xml:space="preserve">Τονώνει και δυναμώνει </t>
+  </si>
+  <si>
+    <t>Sport&amp;Fit, 26th Oktovriou, 546 27, Thessaloniki, Greece</t>
   </si>
   <si>
     <t>Privacy policy</t>
@@ -848,12 +845,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -868,14 +871,17 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -1137,7 +1143,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1162,7 +1168,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1192,7 +1198,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1207,17 +1213,17 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1227,12 +1233,12 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1247,7 +1253,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1282,7 +1288,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1357,12 +1363,12 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1467,12 +1473,12 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1482,7 +1488,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="2" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1497,7 +1503,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1527,52 +1533,52 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="2" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1587,7 +1593,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="2" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1602,7 +1608,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="2" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1617,7 +1623,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="2" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1642,12 +1648,12 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="2" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1722,7 +1728,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="2" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1747,7 +1753,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1782,2213 +1788,2213 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="4" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="3" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="4"/>
+      <c r="A144" s="5"/>
     </row>
     <row r="145">
-      <c r="A145" s="4"/>
+      <c r="A145" s="5"/>
     </row>
     <row r="146">
-      <c r="A146" s="4"/>
+      <c r="A146" s="5"/>
     </row>
     <row r="147">
-      <c r="A147" s="4"/>
+      <c r="A147" s="5"/>
     </row>
     <row r="148">
-      <c r="A148" s="4"/>
+      <c r="A148" s="5"/>
     </row>
     <row r="149">
-      <c r="A149" s="4"/>
+      <c r="A149" s="5"/>
     </row>
     <row r="150">
-      <c r="A150" s="4"/>
+      <c r="A150" s="5"/>
     </row>
     <row r="151">
-      <c r="A151" s="4"/>
+      <c r="A151" s="5"/>
     </row>
     <row r="152">
-      <c r="A152" s="4"/>
+      <c r="A152" s="5"/>
     </row>
     <row r="153">
-      <c r="A153" s="4"/>
+      <c r="A153" s="5"/>
     </row>
     <row r="154">
-      <c r="A154" s="4"/>
+      <c r="A154" s="5"/>
     </row>
     <row r="155">
-      <c r="A155" s="4"/>
+      <c r="A155" s="5"/>
     </row>
     <row r="156">
-      <c r="A156" s="4"/>
+      <c r="A156" s="5"/>
     </row>
     <row r="157">
-      <c r="A157" s="4"/>
+      <c r="A157" s="5"/>
     </row>
     <row r="158">
-      <c r="A158" s="4"/>
+      <c r="A158" s="5"/>
     </row>
     <row r="159">
-      <c r="A159" s="4"/>
+      <c r="A159" s="5"/>
     </row>
     <row r="160">
-      <c r="A160" s="4"/>
+      <c r="A160" s="5"/>
     </row>
     <row r="161">
-      <c r="A161" s="4"/>
+      <c r="A161" s="5"/>
     </row>
     <row r="162">
-      <c r="A162" s="4"/>
+      <c r="A162" s="5"/>
     </row>
     <row r="163">
-      <c r="A163" s="4"/>
+      <c r="A163" s="5"/>
     </row>
     <row r="164">
-      <c r="A164" s="4"/>
+      <c r="A164" s="5"/>
     </row>
     <row r="165">
-      <c r="A165" s="4"/>
+      <c r="A165" s="5"/>
     </row>
     <row r="166">
-      <c r="A166" s="4"/>
+      <c r="A166" s="5"/>
     </row>
     <row r="167">
-      <c r="A167" s="4"/>
+      <c r="A167" s="5"/>
     </row>
     <row r="168">
-      <c r="A168" s="4"/>
+      <c r="A168" s="5"/>
     </row>
     <row r="169">
-      <c r="A169" s="4"/>
+      <c r="A169" s="5"/>
     </row>
     <row r="170">
-      <c r="A170" s="4"/>
+      <c r="A170" s="5"/>
     </row>
     <row r="171">
-      <c r="A171" s="4"/>
+      <c r="A171" s="5"/>
     </row>
     <row r="172">
-      <c r="A172" s="4"/>
+      <c r="A172" s="5"/>
     </row>
     <row r="173">
-      <c r="A173" s="4"/>
+      <c r="A173" s="5"/>
     </row>
     <row r="174">
-      <c r="A174" s="4"/>
+      <c r="A174" s="5"/>
     </row>
     <row r="175">
-      <c r="A175" s="4"/>
+      <c r="A175" s="5"/>
     </row>
     <row r="176">
-      <c r="A176" s="4"/>
+      <c r="A176" s="5"/>
     </row>
     <row r="177">
-      <c r="A177" s="4"/>
+      <c r="A177" s="5"/>
     </row>
     <row r="178">
-      <c r="A178" s="4"/>
+      <c r="A178" s="5"/>
     </row>
     <row r="179">
-      <c r="A179" s="4"/>
+      <c r="A179" s="5"/>
     </row>
     <row r="180">
-      <c r="A180" s="4"/>
+      <c r="A180" s="5"/>
     </row>
     <row r="181">
-      <c r="A181" s="4"/>
+      <c r="A181" s="5"/>
     </row>
     <row r="182">
-      <c r="A182" s="4"/>
+      <c r="A182" s="5"/>
     </row>
     <row r="183">
-      <c r="A183" s="4"/>
+      <c r="A183" s="5"/>
     </row>
     <row r="184">
-      <c r="A184" s="4"/>
+      <c r="A184" s="5"/>
     </row>
     <row r="185">
-      <c r="A185" s="4"/>
+      <c r="A185" s="5"/>
     </row>
     <row r="186">
-      <c r="A186" s="4"/>
+      <c r="A186" s="5"/>
     </row>
     <row r="187">
-      <c r="A187" s="4"/>
+      <c r="A187" s="5"/>
     </row>
     <row r="188">
-      <c r="A188" s="4"/>
+      <c r="A188" s="5"/>
     </row>
     <row r="189">
-      <c r="A189" s="4"/>
+      <c r="A189" s="5"/>
     </row>
     <row r="190">
-      <c r="A190" s="4"/>
+      <c r="A190" s="5"/>
     </row>
     <row r="191">
-      <c r="A191" s="4"/>
+      <c r="A191" s="5"/>
     </row>
     <row r="192">
-      <c r="A192" s="4"/>
+      <c r="A192" s="5"/>
     </row>
     <row r="193">
-      <c r="A193" s="4"/>
+      <c r="A193" s="5"/>
     </row>
     <row r="194">
-      <c r="A194" s="4"/>
+      <c r="A194" s="5"/>
     </row>
     <row r="195">
-      <c r="A195" s="4"/>
+      <c r="A195" s="5"/>
     </row>
     <row r="196">
-      <c r="A196" s="4"/>
+      <c r="A196" s="5"/>
     </row>
     <row r="197">
-      <c r="A197" s="4"/>
+      <c r="A197" s="5"/>
     </row>
     <row r="198">
-      <c r="A198" s="4"/>
+      <c r="A198" s="5"/>
     </row>
     <row r="199">
-      <c r="A199" s="4"/>
+      <c r="A199" s="5"/>
     </row>
     <row r="200">
-      <c r="A200" s="4"/>
+      <c r="A200" s="5"/>
     </row>
     <row r="201">
-      <c r="A201" s="4"/>
+      <c r="A201" s="5"/>
     </row>
     <row r="202">
-      <c r="A202" s="4"/>
+      <c r="A202" s="5"/>
     </row>
     <row r="203">
-      <c r="A203" s="4"/>
+      <c r="A203" s="5"/>
     </row>
     <row r="204">
-      <c r="A204" s="4"/>
+      <c r="A204" s="5"/>
     </row>
     <row r="205">
-      <c r="A205" s="4"/>
+      <c r="A205" s="5"/>
     </row>
     <row r="206">
-      <c r="A206" s="4"/>
+      <c r="A206" s="5"/>
     </row>
     <row r="207">
-      <c r="A207" s="4"/>
+      <c r="A207" s="5"/>
     </row>
     <row r="208">
-      <c r="A208" s="4"/>
+      <c r="A208" s="5"/>
     </row>
     <row r="209">
-      <c r="A209" s="4"/>
+      <c r="A209" s="5"/>
     </row>
     <row r="210">
-      <c r="A210" s="4"/>
+      <c r="A210" s="5"/>
     </row>
     <row r="211">
-      <c r="A211" s="4"/>
+      <c r="A211" s="5"/>
     </row>
     <row r="212">
-      <c r="A212" s="4"/>
+      <c r="A212" s="5"/>
     </row>
     <row r="213">
-      <c r="A213" s="4"/>
+      <c r="A213" s="5"/>
     </row>
     <row r="214">
-      <c r="A214" s="4"/>
+      <c r="A214" s="5"/>
     </row>
     <row r="215">
-      <c r="A215" s="4"/>
+      <c r="A215" s="5"/>
     </row>
     <row r="216">
-      <c r="A216" s="4"/>
+      <c r="A216" s="5"/>
     </row>
     <row r="217">
-      <c r="A217" s="4"/>
+      <c r="A217" s="5"/>
     </row>
     <row r="218">
-      <c r="A218" s="4"/>
+      <c r="A218" s="5"/>
     </row>
     <row r="219">
-      <c r="A219" s="4"/>
+      <c r="A219" s="5"/>
     </row>
     <row r="220">
-      <c r="A220" s="4"/>
+      <c r="A220" s="5"/>
     </row>
     <row r="221">
-      <c r="A221" s="4"/>
+      <c r="A221" s="5"/>
     </row>
     <row r="222">
-      <c r="A222" s="4"/>
+      <c r="A222" s="5"/>
     </row>
     <row r="223">
-      <c r="A223" s="4"/>
+      <c r="A223" s="5"/>
     </row>
     <row r="224">
-      <c r="A224" s="4"/>
+      <c r="A224" s="5"/>
     </row>
     <row r="225">
-      <c r="A225" s="4"/>
+      <c r="A225" s="5"/>
     </row>
     <row r="226">
-      <c r="A226" s="4"/>
+      <c r="A226" s="5"/>
     </row>
     <row r="227">
-      <c r="A227" s="4"/>
+      <c r="A227" s="5"/>
     </row>
     <row r="228">
-      <c r="A228" s="4"/>
+      <c r="A228" s="5"/>
     </row>
     <row r="229">
-      <c r="A229" s="4"/>
+      <c r="A229" s="5"/>
     </row>
     <row r="230">
-      <c r="A230" s="4"/>
+      <c r="A230" s="5"/>
     </row>
     <row r="231">
-      <c r="A231" s="4"/>
+      <c r="A231" s="5"/>
     </row>
     <row r="232">
-      <c r="A232" s="4"/>
+      <c r="A232" s="5"/>
     </row>
     <row r="233">
-      <c r="A233" s="4"/>
+      <c r="A233" s="5"/>
     </row>
     <row r="234">
-      <c r="A234" s="4"/>
+      <c r="A234" s="5"/>
     </row>
     <row r="235">
-      <c r="A235" s="4"/>
+      <c r="A235" s="5"/>
     </row>
     <row r="236">
-      <c r="A236" s="4"/>
+      <c r="A236" s="5"/>
     </row>
     <row r="237">
-      <c r="A237" s="4"/>
+      <c r="A237" s="5"/>
     </row>
     <row r="238">
-      <c r="A238" s="4"/>
+      <c r="A238" s="5"/>
     </row>
     <row r="239">
-      <c r="A239" s="4"/>
+      <c r="A239" s="5"/>
     </row>
     <row r="240">
-      <c r="A240" s="4"/>
+      <c r="A240" s="5"/>
     </row>
     <row r="241">
-      <c r="A241" s="4"/>
+      <c r="A241" s="5"/>
     </row>
     <row r="242">
-      <c r="A242" s="4"/>
+      <c r="A242" s="5"/>
     </row>
     <row r="243">
-      <c r="A243" s="4"/>
+      <c r="A243" s="5"/>
     </row>
     <row r="244">
-      <c r="A244" s="4"/>
+      <c r="A244" s="5"/>
     </row>
     <row r="245">
-      <c r="A245" s="4"/>
+      <c r="A245" s="5"/>
     </row>
     <row r="246">
-      <c r="A246" s="4"/>
+      <c r="A246" s="5"/>
     </row>
     <row r="247">
-      <c r="A247" s="4"/>
+      <c r="A247" s="5"/>
     </row>
     <row r="248">
-      <c r="A248" s="4"/>
+      <c r="A248" s="5"/>
     </row>
     <row r="249">
-      <c r="A249" s="4"/>
+      <c r="A249" s="5"/>
     </row>
     <row r="250">
-      <c r="A250" s="4"/>
+      <c r="A250" s="5"/>
     </row>
     <row r="251">
-      <c r="A251" s="4"/>
+      <c r="A251" s="5"/>
     </row>
     <row r="252">
-      <c r="A252" s="4"/>
+      <c r="A252" s="5"/>
     </row>
     <row r="253">
-      <c r="A253" s="4"/>
+      <c r="A253" s="5"/>
     </row>
     <row r="254">
-      <c r="A254" s="4"/>
+      <c r="A254" s="5"/>
     </row>
     <row r="255">
-      <c r="A255" s="4"/>
+      <c r="A255" s="5"/>
     </row>
     <row r="256">
-      <c r="A256" s="4"/>
+      <c r="A256" s="5"/>
     </row>
     <row r="257">
-      <c r="A257" s="4"/>
+      <c r="A257" s="5"/>
     </row>
     <row r="258">
-      <c r="A258" s="4"/>
+      <c r="A258" s="5"/>
     </row>
     <row r="259">
-      <c r="A259" s="4"/>
+      <c r="A259" s="5"/>
     </row>
     <row r="260">
-      <c r="A260" s="4"/>
+      <c r="A260" s="5"/>
     </row>
     <row r="261">
-      <c r="A261" s="4"/>
+      <c r="A261" s="5"/>
     </row>
     <row r="262">
-      <c r="A262" s="4"/>
+      <c r="A262" s="5"/>
     </row>
     <row r="263">
-      <c r="A263" s="4"/>
+      <c r="A263" s="5"/>
     </row>
     <row r="264">
-      <c r="A264" s="4"/>
+      <c r="A264" s="5"/>
     </row>
     <row r="265">
-      <c r="A265" s="4"/>
+      <c r="A265" s="5"/>
     </row>
     <row r="266">
-      <c r="A266" s="4"/>
+      <c r="A266" s="5"/>
     </row>
     <row r="267">
-      <c r="A267" s="4"/>
+      <c r="A267" s="5"/>
     </row>
     <row r="268">
-      <c r="A268" s="4"/>
+      <c r="A268" s="5"/>
     </row>
     <row r="269">
-      <c r="A269" s="4"/>
+      <c r="A269" s="5"/>
     </row>
     <row r="270">
-      <c r="A270" s="4"/>
+      <c r="A270" s="5"/>
     </row>
     <row r="271">
-      <c r="A271" s="4"/>
+      <c r="A271" s="5"/>
     </row>
     <row r="272">
-      <c r="A272" s="4"/>
+      <c r="A272" s="5"/>
     </row>
     <row r="273">
-      <c r="A273" s="4"/>
+      <c r="A273" s="5"/>
     </row>
     <row r="274">
-      <c r="A274" s="4"/>
+      <c r="A274" s="5"/>
     </row>
     <row r="275">
-      <c r="A275" s="4"/>
+      <c r="A275" s="5"/>
     </row>
     <row r="276">
-      <c r="A276" s="4"/>
+      <c r="A276" s="5"/>
     </row>
     <row r="277">
-      <c r="A277" s="4"/>
+      <c r="A277" s="5"/>
     </row>
     <row r="278">
-      <c r="A278" s="4"/>
+      <c r="A278" s="5"/>
     </row>
     <row r="279">
-      <c r="A279" s="4"/>
+      <c r="A279" s="5"/>
     </row>
     <row r="280">
-      <c r="A280" s="4"/>
+      <c r="A280" s="5"/>
     </row>
     <row r="281">
-      <c r="A281" s="4"/>
+      <c r="A281" s="5"/>
     </row>
     <row r="282">
-      <c r="A282" s="4"/>
+      <c r="A282" s="5"/>
     </row>
     <row r="283">
-      <c r="A283" s="4"/>
+      <c r="A283" s="5"/>
     </row>
     <row r="284">
-      <c r="A284" s="4"/>
+      <c r="A284" s="5"/>
     </row>
     <row r="285">
-      <c r="A285" s="4"/>
+      <c r="A285" s="5"/>
     </row>
     <row r="286">
-      <c r="A286" s="4"/>
+      <c r="A286" s="5"/>
     </row>
     <row r="287">
-      <c r="A287" s="4"/>
+      <c r="A287" s="5"/>
     </row>
     <row r="288">
-      <c r="A288" s="4"/>
+      <c r="A288" s="5"/>
     </row>
     <row r="289">
-      <c r="A289" s="4"/>
+      <c r="A289" s="5"/>
     </row>
     <row r="290">
-      <c r="A290" s="4"/>
+      <c r="A290" s="5"/>
     </row>
     <row r="291">
-      <c r="A291" s="4"/>
+      <c r="A291" s="5"/>
     </row>
     <row r="292">
-      <c r="A292" s="4"/>
+      <c r="A292" s="5"/>
     </row>
     <row r="293">
-      <c r="A293" s="4"/>
+      <c r="A293" s="5"/>
     </row>
     <row r="294">
-      <c r="A294" s="4"/>
+      <c r="A294" s="5"/>
     </row>
     <row r="295">
-      <c r="A295" s="4"/>
+      <c r="A295" s="5"/>
     </row>
     <row r="296">
-      <c r="A296" s="4"/>
+      <c r="A296" s="5"/>
     </row>
     <row r="297">
-      <c r="A297" s="4"/>
+      <c r="A297" s="5"/>
     </row>
     <row r="298">
-      <c r="A298" s="4"/>
+      <c r="A298" s="5"/>
     </row>
     <row r="299">
-      <c r="A299" s="4"/>
+      <c r="A299" s="5"/>
     </row>
     <row r="300">
-      <c r="A300" s="4"/>
+      <c r="A300" s="5"/>
     </row>
     <row r="301">
-      <c r="A301" s="4"/>
+      <c r="A301" s="5"/>
     </row>
     <row r="302">
-      <c r="A302" s="4"/>
+      <c r="A302" s="5"/>
     </row>
     <row r="303">
-      <c r="A303" s="4"/>
+      <c r="A303" s="5"/>
     </row>
     <row r="304">
-      <c r="A304" s="4"/>
+      <c r="A304" s="5"/>
     </row>
     <row r="305">
-      <c r="A305" s="4"/>
+      <c r="A305" s="5"/>
     </row>
     <row r="306">
-      <c r="A306" s="4"/>
+      <c r="A306" s="5"/>
     </row>
     <row r="307">
-      <c r="A307" s="4"/>
+      <c r="A307" s="5"/>
     </row>
     <row r="308">
-      <c r="A308" s="4"/>
+      <c r="A308" s="5"/>
     </row>
     <row r="309">
-      <c r="A309" s="4"/>
+      <c r="A309" s="5"/>
     </row>
     <row r="310">
-      <c r="A310" s="4"/>
+      <c r="A310" s="5"/>
     </row>
     <row r="311">
-      <c r="A311" s="4"/>
+      <c r="A311" s="5"/>
     </row>
     <row r="312">
-      <c r="A312" s="4"/>
+      <c r="A312" s="5"/>
     </row>
     <row r="313">
-      <c r="A313" s="4"/>
+      <c r="A313" s="5"/>
     </row>
     <row r="314">
-      <c r="A314" s="4"/>
+      <c r="A314" s="5"/>
     </row>
     <row r="315">
-      <c r="A315" s="4"/>
+      <c r="A315" s="5"/>
     </row>
     <row r="316">
-      <c r="A316" s="4"/>
+      <c r="A316" s="5"/>
     </row>
     <row r="317">
-      <c r="A317" s="4"/>
+      <c r="A317" s="5"/>
     </row>
     <row r="318">
-      <c r="A318" s="4"/>
+      <c r="A318" s="5"/>
     </row>
     <row r="319">
-      <c r="A319" s="4"/>
+      <c r="A319" s="5"/>
     </row>
     <row r="320">
-      <c r="A320" s="4"/>
+      <c r="A320" s="5"/>
     </row>
     <row r="321">
-      <c r="A321" s="4"/>
+      <c r="A321" s="5"/>
     </row>
     <row r="322">
-      <c r="A322" s="4"/>
+      <c r="A322" s="5"/>
     </row>
     <row r="323">
-      <c r="A323" s="4"/>
+      <c r="A323" s="5"/>
     </row>
     <row r="324">
-      <c r="A324" s="4"/>
+      <c r="A324" s="5"/>
     </row>
     <row r="325">
-      <c r="A325" s="4"/>
+      <c r="A325" s="5"/>
     </row>
     <row r="326">
-      <c r="A326" s="4"/>
+      <c r="A326" s="5"/>
     </row>
     <row r="327">
-      <c r="A327" s="4"/>
+      <c r="A327" s="5"/>
     </row>
     <row r="328">
-      <c r="A328" s="4"/>
+      <c r="A328" s="5"/>
     </row>
     <row r="329">
-      <c r="A329" s="4"/>
+      <c r="A329" s="5"/>
     </row>
     <row r="330">
-      <c r="A330" s="4"/>
+      <c r="A330" s="5"/>
     </row>
     <row r="331">
-      <c r="A331" s="4"/>
+      <c r="A331" s="5"/>
     </row>
     <row r="332">
-      <c r="A332" s="4"/>
+      <c r="A332" s="5"/>
     </row>
     <row r="333">
-      <c r="A333" s="4"/>
+      <c r="A333" s="5"/>
     </row>
     <row r="334">
-      <c r="A334" s="4"/>
+      <c r="A334" s="5"/>
     </row>
     <row r="335">
-      <c r="A335" s="4"/>
+      <c r="A335" s="5"/>
     </row>
     <row r="336">
-      <c r="A336" s="4"/>
+      <c r="A336" s="5"/>
     </row>
     <row r="337">
-      <c r="A337" s="4"/>
+      <c r="A337" s="5"/>
     </row>
     <row r="338">
-      <c r="A338" s="4"/>
+      <c r="A338" s="5"/>
     </row>
     <row r="339">
-      <c r="A339" s="4"/>
+      <c r="A339" s="5"/>
     </row>
     <row r="340">
-      <c r="A340" s="4"/>
+      <c r="A340" s="5"/>
     </row>
     <row r="341">
-      <c r="A341" s="4"/>
+      <c r="A341" s="5"/>
     </row>
     <row r="342">
-      <c r="A342" s="4"/>
+      <c r="A342" s="5"/>
     </row>
     <row r="343">
-      <c r="A343" s="4"/>
+      <c r="A343" s="5"/>
     </row>
     <row r="344">
-      <c r="A344" s="4"/>
+      <c r="A344" s="5"/>
     </row>
     <row r="345">
-      <c r="A345" s="4"/>
+      <c r="A345" s="5"/>
     </row>
     <row r="346">
-      <c r="A346" s="4"/>
+      <c r="A346" s="5"/>
     </row>
     <row r="347">
-      <c r="A347" s="4"/>
+      <c r="A347" s="5"/>
     </row>
     <row r="348">
-      <c r="A348" s="4"/>
+      <c r="A348" s="5"/>
     </row>
     <row r="349">
-      <c r="A349" s="4"/>
+      <c r="A349" s="5"/>
     </row>
     <row r="350">
-      <c r="A350" s="4"/>
+      <c r="A350" s="5"/>
     </row>
     <row r="351">
-      <c r="A351" s="4"/>
+      <c r="A351" s="5"/>
     </row>
     <row r="352">
-      <c r="A352" s="4"/>
+      <c r="A352" s="5"/>
     </row>
     <row r="353">
-      <c r="A353" s="4"/>
+      <c r="A353" s="5"/>
     </row>
     <row r="354">
-      <c r="A354" s="4"/>
+      <c r="A354" s="5"/>
     </row>
     <row r="355">
-      <c r="A355" s="4"/>
+      <c r="A355" s="5"/>
     </row>
     <row r="356">
-      <c r="A356" s="4"/>
+      <c r="A356" s="5"/>
     </row>
     <row r="357">
-      <c r="A357" s="4"/>
+      <c r="A357" s="5"/>
     </row>
     <row r="358">
-      <c r="A358" s="4"/>
+      <c r="A358" s="5"/>
     </row>
     <row r="359">
-      <c r="A359" s="4"/>
+      <c r="A359" s="5"/>
     </row>
     <row r="360">
-      <c r="A360" s="4"/>
+      <c r="A360" s="5"/>
     </row>
     <row r="361">
-      <c r="A361" s="4"/>
+      <c r="A361" s="5"/>
     </row>
     <row r="362">
-      <c r="A362" s="4"/>
+      <c r="A362" s="5"/>
     </row>
     <row r="363">
-      <c r="A363" s="4"/>
+      <c r="A363" s="5"/>
     </row>
     <row r="364">
-      <c r="A364" s="4"/>
+      <c r="A364" s="5"/>
     </row>
     <row r="365">
-      <c r="A365" s="4"/>
+      <c r="A365" s="5"/>
     </row>
     <row r="366">
-      <c r="A366" s="4"/>
+      <c r="A366" s="5"/>
     </row>
     <row r="367">
-      <c r="A367" s="4"/>
+      <c r="A367" s="5"/>
     </row>
     <row r="368">
-      <c r="A368" s="4"/>
+      <c r="A368" s="5"/>
     </row>
     <row r="369">
-      <c r="A369" s="4"/>
+      <c r="A369" s="5"/>
     </row>
     <row r="370">
-      <c r="A370" s="4"/>
+      <c r="A370" s="5"/>
     </row>
     <row r="371">
-      <c r="A371" s="4"/>
+      <c r="A371" s="5"/>
     </row>
     <row r="372">
-      <c r="A372" s="4"/>
+      <c r="A372" s="5"/>
     </row>
     <row r="373">
-      <c r="A373" s="4"/>
+      <c r="A373" s="5"/>
     </row>
     <row r="374">
-      <c r="A374" s="4"/>
+      <c r="A374" s="5"/>
     </row>
     <row r="375">
-      <c r="A375" s="4"/>
+      <c r="A375" s="5"/>
     </row>
     <row r="376">
-      <c r="A376" s="4"/>
+      <c r="A376" s="5"/>
     </row>
     <row r="377">
-      <c r="A377" s="4"/>
+      <c r="A377" s="5"/>
     </row>
     <row r="378">
-      <c r="A378" s="4"/>
+      <c r="A378" s="5"/>
     </row>
     <row r="379">
-      <c r="A379" s="4"/>
+      <c r="A379" s="5"/>
     </row>
     <row r="380">
-      <c r="A380" s="4"/>
+      <c r="A380" s="5"/>
     </row>
     <row r="381">
-      <c r="A381" s="4"/>
+      <c r="A381" s="5"/>
     </row>
     <row r="382">
-      <c r="A382" s="4"/>
+      <c r="A382" s="5"/>
     </row>
     <row r="383">
-      <c r="A383" s="4"/>
+      <c r="A383" s="5"/>
     </row>
     <row r="384">
-      <c r="A384" s="4"/>
+      <c r="A384" s="5"/>
     </row>
     <row r="385">
-      <c r="A385" s="4"/>
+      <c r="A385" s="5"/>
     </row>
     <row r="386">
-      <c r="A386" s="4"/>
+      <c r="A386" s="5"/>
     </row>
     <row r="387">
-      <c r="A387" s="4"/>
+      <c r="A387" s="5"/>
     </row>
     <row r="388">
-      <c r="A388" s="4"/>
+      <c r="A388" s="5"/>
     </row>
     <row r="389">
-      <c r="A389" s="4"/>
+      <c r="A389" s="5"/>
     </row>
     <row r="390">
-      <c r="A390" s="4"/>
+      <c r="A390" s="5"/>
     </row>
     <row r="391">
-      <c r="A391" s="4"/>
+      <c r="A391" s="5"/>
     </row>
     <row r="392">
-      <c r="A392" s="4"/>
+      <c r="A392" s="5"/>
     </row>
     <row r="393">
-      <c r="A393" s="4"/>
+      <c r="A393" s="5"/>
     </row>
     <row r="394">
-      <c r="A394" s="4"/>
+      <c r="A394" s="5"/>
     </row>
     <row r="395">
-      <c r="A395" s="4"/>
+      <c r="A395" s="5"/>
     </row>
     <row r="396">
-      <c r="A396" s="4"/>
+      <c r="A396" s="5"/>
     </row>
     <row r="397">
-      <c r="A397" s="4"/>
+      <c r="A397" s="5"/>
     </row>
     <row r="398">
-      <c r="A398" s="4"/>
+      <c r="A398" s="5"/>
     </row>
     <row r="399">
-      <c r="A399" s="4"/>
+      <c r="A399" s="5"/>
     </row>
     <row r="400">
-      <c r="A400" s="4"/>
+      <c r="A400" s="5"/>
     </row>
     <row r="401">
-      <c r="A401" s="4"/>
+      <c r="A401" s="5"/>
     </row>
     <row r="402">
-      <c r="A402" s="4"/>
+      <c r="A402" s="5"/>
     </row>
     <row r="403">
-      <c r="A403" s="4"/>
+      <c r="A403" s="5"/>
     </row>
     <row r="404">
-      <c r="A404" s="4"/>
+      <c r="A404" s="5"/>
     </row>
     <row r="405">
-      <c r="A405" s="4"/>
+      <c r="A405" s="5"/>
     </row>
     <row r="406">
-      <c r="A406" s="4"/>
+      <c r="A406" s="5"/>
     </row>
     <row r="407">
-      <c r="A407" s="4"/>
+      <c r="A407" s="5"/>
     </row>
     <row r="408">
-      <c r="A408" s="4"/>
+      <c r="A408" s="5"/>
     </row>
     <row r="409">
-      <c r="A409" s="4"/>
+      <c r="A409" s="5"/>
     </row>
     <row r="410">
-      <c r="A410" s="4"/>
+      <c r="A410" s="5"/>
     </row>
     <row r="411">
-      <c r="A411" s="4"/>
+      <c r="A411" s="5"/>
     </row>
     <row r="412">
-      <c r="A412" s="4"/>
+      <c r="A412" s="5"/>
     </row>
     <row r="413">
-      <c r="A413" s="4"/>
+      <c r="A413" s="5"/>
     </row>
     <row r="414">
-      <c r="A414" s="4"/>
+      <c r="A414" s="5"/>
     </row>
     <row r="415">
-      <c r="A415" s="4"/>
+      <c r="A415" s="5"/>
     </row>
     <row r="416">
-      <c r="A416" s="4"/>
+      <c r="A416" s="5"/>
     </row>
     <row r="417">
-      <c r="A417" s="4"/>
+      <c r="A417" s="5"/>
     </row>
     <row r="418">
-      <c r="A418" s="4"/>
+      <c r="A418" s="5"/>
     </row>
     <row r="419">
-      <c r="A419" s="4"/>
+      <c r="A419" s="5"/>
     </row>
     <row r="420">
-      <c r="A420" s="4"/>
+      <c r="A420" s="5"/>
     </row>
     <row r="421">
-      <c r="A421" s="4"/>
+      <c r="A421" s="5"/>
     </row>
     <row r="422">
-      <c r="A422" s="4"/>
+      <c r="A422" s="5"/>
     </row>
     <row r="423">
-      <c r="A423" s="4"/>
+      <c r="A423" s="5"/>
     </row>
     <row r="424">
-      <c r="A424" s="4"/>
+      <c r="A424" s="5"/>
     </row>
     <row r="425">
-      <c r="A425" s="4"/>
+      <c r="A425" s="5"/>
     </row>
     <row r="426">
-      <c r="A426" s="4"/>
+      <c r="A426" s="5"/>
     </row>
     <row r="427">
-      <c r="A427" s="4"/>
+      <c r="A427" s="5"/>
     </row>
     <row r="428">
-      <c r="A428" s="4"/>
+      <c r="A428" s="5"/>
     </row>
     <row r="429">
-      <c r="A429" s="4"/>
+      <c r="A429" s="5"/>
     </row>
     <row r="430">
-      <c r="A430" s="4"/>
+      <c r="A430" s="5"/>
     </row>
     <row r="431">
-      <c r="A431" s="4"/>
+      <c r="A431" s="5"/>
     </row>
     <row r="432">
-      <c r="A432" s="4"/>
+      <c r="A432" s="5"/>
     </row>
     <row r="433">
-      <c r="A433" s="4"/>
+      <c r="A433" s="5"/>
     </row>
     <row r="434">
-      <c r="A434" s="4"/>
+      <c r="A434" s="5"/>
     </row>
     <row r="435">
-      <c r="A435" s="4"/>
+      <c r="A435" s="5"/>
     </row>
     <row r="436">
-      <c r="A436" s="4"/>
+      <c r="A436" s="5"/>
     </row>
     <row r="437">
-      <c r="A437" s="4"/>
+      <c r="A437" s="5"/>
     </row>
     <row r="438">
-      <c r="A438" s="4"/>
+      <c r="A438" s="5"/>
     </row>
     <row r="439">
-      <c r="A439" s="4"/>
+      <c r="A439" s="5"/>
     </row>
     <row r="440">
-      <c r="A440" s="4"/>
+      <c r="A440" s="5"/>
     </row>
     <row r="441">
-      <c r="A441" s="4"/>
+      <c r="A441" s="5"/>
     </row>
     <row r="442">
-      <c r="A442" s="4"/>
+      <c r="A442" s="5"/>
     </row>
     <row r="443">
-      <c r="A443" s="4"/>
+      <c r="A443" s="5"/>
     </row>
     <row r="444">
-      <c r="A444" s="4"/>
+      <c r="A444" s="5"/>
     </row>
     <row r="445">
-      <c r="A445" s="4"/>
+      <c r="A445" s="5"/>
     </row>
     <row r="446">
-      <c r="A446" s="4"/>
+      <c r="A446" s="5"/>
     </row>
     <row r="447">
-      <c r="A447" s="4"/>
+      <c r="A447" s="5"/>
     </row>
     <row r="448">
-      <c r="A448" s="4"/>
+      <c r="A448" s="5"/>
     </row>
     <row r="449">
-      <c r="A449" s="4"/>
+      <c r="A449" s="5"/>
     </row>
     <row r="450">
-      <c r="A450" s="4"/>
+      <c r="A450" s="5"/>
     </row>
     <row r="451">
-      <c r="A451" s="4"/>
+      <c r="A451" s="5"/>
     </row>
     <row r="452">
-      <c r="A452" s="4"/>
+      <c r="A452" s="5"/>
     </row>
     <row r="453">
-      <c r="A453" s="4"/>
+      <c r="A453" s="5"/>
     </row>
     <row r="454">
-      <c r="A454" s="4"/>
+      <c r="A454" s="5"/>
     </row>
     <row r="455">
-      <c r="A455" s="4"/>
+      <c r="A455" s="5"/>
     </row>
     <row r="456">
-      <c r="A456" s="4"/>
+      <c r="A456" s="5"/>
     </row>
     <row r="457">
-      <c r="A457" s="4"/>
+      <c r="A457" s="5"/>
     </row>
     <row r="458">
-      <c r="A458" s="4"/>
+      <c r="A458" s="5"/>
     </row>
     <row r="459">
-      <c r="A459" s="4"/>
+      <c r="A459" s="5"/>
     </row>
     <row r="460">
-      <c r="A460" s="4"/>
+      <c r="A460" s="5"/>
     </row>
     <row r="461">
-      <c r="A461" s="4"/>
+      <c r="A461" s="5"/>
     </row>
     <row r="462">
-      <c r="A462" s="4"/>
+      <c r="A462" s="5"/>
     </row>
     <row r="463">
-      <c r="A463" s="4"/>
+      <c r="A463" s="5"/>
     </row>
     <row r="464">
-      <c r="A464" s="4"/>
+      <c r="A464" s="5"/>
     </row>
     <row r="465">
-      <c r="A465" s="4"/>
+      <c r="A465" s="5"/>
     </row>
     <row r="466">
-      <c r="A466" s="4"/>
+      <c r="A466" s="5"/>
     </row>
     <row r="467">
-      <c r="A467" s="4"/>
+      <c r="A467" s="5"/>
     </row>
     <row r="468">
-      <c r="A468" s="4"/>
+      <c r="A468" s="5"/>
     </row>
     <row r="469">
-      <c r="A469" s="4"/>
+      <c r="A469" s="5"/>
     </row>
     <row r="470">
-      <c r="A470" s="4"/>
+      <c r="A470" s="5"/>
     </row>
     <row r="471">
-      <c r="A471" s="4"/>
+      <c r="A471" s="5"/>
     </row>
     <row r="472">
-      <c r="A472" s="4"/>
+      <c r="A472" s="5"/>
     </row>
     <row r="473">
-      <c r="A473" s="4"/>
+      <c r="A473" s="5"/>
     </row>
     <row r="474">
-      <c r="A474" s="4"/>
+      <c r="A474" s="5"/>
     </row>
     <row r="475">
-      <c r="A475" s="4"/>
+      <c r="A475" s="5"/>
     </row>
     <row r="476">
-      <c r="A476" s="4"/>
+      <c r="A476" s="5"/>
     </row>
     <row r="477">
-      <c r="A477" s="4"/>
+      <c r="A477" s="5"/>
     </row>
     <row r="478">
-      <c r="A478" s="4"/>
+      <c r="A478" s="5"/>
     </row>
     <row r="479">
-      <c r="A479" s="4"/>
+      <c r="A479" s="5"/>
     </row>
     <row r="480">
-      <c r="A480" s="4"/>
+      <c r="A480" s="5"/>
     </row>
     <row r="481">
-      <c r="A481" s="4"/>
+      <c r="A481" s="5"/>
     </row>
     <row r="482">
-      <c r="A482" s="4"/>
+      <c r="A482" s="5"/>
     </row>
     <row r="483">
-      <c r="A483" s="4"/>
+      <c r="A483" s="5"/>
     </row>
     <row r="484">
-      <c r="A484" s="4"/>
+      <c r="A484" s="5"/>
     </row>
     <row r="485">
-      <c r="A485" s="4"/>
+      <c r="A485" s="5"/>
     </row>
     <row r="486">
-      <c r="A486" s="4"/>
+      <c r="A486" s="5"/>
     </row>
     <row r="487">
-      <c r="A487" s="4"/>
+      <c r="A487" s="5"/>
     </row>
     <row r="488">
-      <c r="A488" s="4"/>
+      <c r="A488" s="5"/>
     </row>
     <row r="489">
-      <c r="A489" s="4"/>
+      <c r="A489" s="5"/>
     </row>
     <row r="490">
-      <c r="A490" s="4"/>
+      <c r="A490" s="5"/>
     </row>
     <row r="491">
-      <c r="A491" s="4"/>
+      <c r="A491" s="5"/>
     </row>
     <row r="492">
-      <c r="A492" s="4"/>
+      <c r="A492" s="5"/>
     </row>
     <row r="493">
-      <c r="A493" s="4"/>
+      <c r="A493" s="5"/>
     </row>
     <row r="494">
-      <c r="A494" s="4"/>
+      <c r="A494" s="5"/>
     </row>
     <row r="495">
-      <c r="A495" s="4"/>
+      <c r="A495" s="5"/>
     </row>
     <row r="496">
-      <c r="A496" s="4"/>
+      <c r="A496" s="5"/>
     </row>
     <row r="497">
-      <c r="A497" s="4"/>
+      <c r="A497" s="5"/>
     </row>
     <row r="498">
-      <c r="A498" s="4"/>
+      <c r="A498" s="5"/>
     </row>
     <row r="499">
-      <c r="A499" s="4"/>
+      <c r="A499" s="5"/>
     </row>
     <row r="500">
-      <c r="A500" s="4"/>
+      <c r="A500" s="5"/>
     </row>
     <row r="501">
-      <c r="A501" s="4"/>
+      <c r="A501" s="5"/>
     </row>
     <row r="502">
-      <c r="A502" s="4"/>
+      <c r="A502" s="5"/>
     </row>
     <row r="503">
-      <c r="A503" s="4"/>
+      <c r="A503" s="5"/>
     </row>
     <row r="504">
-      <c r="A504" s="4"/>
+      <c r="A504" s="5"/>
     </row>
     <row r="505">
-      <c r="A505" s="4"/>
+      <c r="A505" s="5"/>
     </row>
     <row r="506">
-      <c r="A506" s="4"/>
+      <c r="A506" s="5"/>
     </row>
     <row r="507">
-      <c r="A507" s="4"/>
+      <c r="A507" s="5"/>
     </row>
     <row r="508">
-      <c r="A508" s="4"/>
+      <c r="A508" s="5"/>
     </row>
     <row r="509">
-      <c r="A509" s="4"/>
+      <c r="A509" s="5"/>
     </row>
     <row r="510">
-      <c r="A510" s="4"/>
+      <c r="A510" s="5"/>
     </row>
     <row r="511">
-      <c r="A511" s="4"/>
+      <c r="A511" s="5"/>
     </row>
     <row r="512">
-      <c r="A512" s="4"/>
+      <c r="A512" s="5"/>
     </row>
     <row r="513">
-      <c r="A513" s="4"/>
+      <c r="A513" s="5"/>
     </row>
     <row r="514">
-      <c r="A514" s="4"/>
+      <c r="A514" s="5"/>
     </row>
     <row r="515">
-      <c r="A515" s="4"/>
+      <c r="A515" s="5"/>
     </row>
     <row r="516">
-      <c r="A516" s="4"/>
+      <c r="A516" s="5"/>
     </row>
     <row r="517">
-      <c r="A517" s="4"/>
+      <c r="A517" s="5"/>
     </row>
     <row r="518">
-      <c r="A518" s="4"/>
+      <c r="A518" s="5"/>
     </row>
     <row r="519">
-      <c r="A519" s="4"/>
+      <c r="A519" s="5"/>
     </row>
     <row r="520">
-      <c r="A520" s="4"/>
+      <c r="A520" s="5"/>
     </row>
     <row r="521">
-      <c r="A521" s="4"/>
+      <c r="A521" s="5"/>
     </row>
     <row r="522">
-      <c r="A522" s="4"/>
+      <c r="A522" s="5"/>
     </row>
     <row r="523">
-      <c r="A523" s="4"/>
+      <c r="A523" s="5"/>
     </row>
     <row r="524">
-      <c r="A524" s="4"/>
+      <c r="A524" s="5"/>
     </row>
     <row r="525">
-      <c r="A525" s="4"/>
+      <c r="A525" s="5"/>
     </row>
     <row r="526">
-      <c r="A526" s="4"/>
+      <c r="A526" s="5"/>
     </row>
     <row r="527">
-      <c r="A527" s="4"/>
+      <c r="A527" s="5"/>
     </row>
     <row r="528">
-      <c r="A528" s="4"/>
+      <c r="A528" s="5"/>
     </row>
     <row r="529">
-      <c r="A529" s="4"/>
+      <c r="A529" s="5"/>
     </row>
     <row r="530">
-      <c r="A530" s="4"/>
+      <c r="A530" s="5"/>
     </row>
     <row r="531">
-      <c r="A531" s="4"/>
+      <c r="A531" s="5"/>
     </row>
     <row r="532">
-      <c r="A532" s="4"/>
+      <c r="A532" s="5"/>
     </row>
     <row r="533">
-      <c r="A533" s="4"/>
+      <c r="A533" s="5"/>
     </row>
     <row r="534">
-      <c r="A534" s="4"/>
+      <c r="A534" s="5"/>
     </row>
     <row r="535">
-      <c r="A535" s="4"/>
+      <c r="A535" s="5"/>
     </row>
     <row r="536">
-      <c r="A536" s="4"/>
+      <c r="A536" s="5"/>
     </row>
     <row r="537">
-      <c r="A537" s="4"/>
+      <c r="A537" s="5"/>
     </row>
     <row r="538">
-      <c r="A538" s="4"/>
+      <c r="A538" s="5"/>
     </row>
     <row r="539">
-      <c r="A539" s="4"/>
+      <c r="A539" s="5"/>
     </row>
     <row r="540">
-      <c r="A540" s="4"/>
+      <c r="A540" s="5"/>
     </row>
     <row r="541">
-      <c r="A541" s="4"/>
+      <c r="A541" s="5"/>
     </row>
     <row r="542">
-      <c r="A542" s="4"/>
+      <c r="A542" s="5"/>
     </row>
     <row r="543">
-      <c r="A543" s="4"/>
+      <c r="A543" s="5"/>
     </row>
     <row r="544">
-      <c r="A544" s="4"/>
+      <c r="A544" s="5"/>
     </row>
     <row r="545">
-      <c r="A545" s="4"/>
+      <c r="A545" s="5"/>
     </row>
     <row r="546">
-      <c r="A546" s="4"/>
+      <c r="A546" s="5"/>
     </row>
     <row r="547">
-      <c r="A547" s="4"/>
+      <c r="A547" s="5"/>
     </row>
     <row r="548">
-      <c r="A548" s="4"/>
+      <c r="A548" s="5"/>
     </row>
     <row r="549">
-      <c r="A549" s="4"/>
+      <c r="A549" s="5"/>
     </row>
     <row r="550">
-      <c r="A550" s="4"/>
+      <c r="A550" s="5"/>
     </row>
     <row r="551">
-      <c r="A551" s="4"/>
+      <c r="A551" s="5"/>
     </row>
     <row r="552">
-      <c r="A552" s="4"/>
+      <c r="A552" s="5"/>
     </row>
     <row r="553">
-      <c r="A553" s="4"/>
+      <c r="A553" s="5"/>
     </row>
     <row r="554">
-      <c r="A554" s="4"/>
+      <c r="A554" s="5"/>
     </row>
     <row r="555">
-      <c r="A555" s="4"/>
+      <c r="A555" s="5"/>
     </row>
     <row r="556">
-      <c r="A556" s="4"/>
+      <c r="A556" s="5"/>
     </row>
     <row r="557">
-      <c r="A557" s="4"/>
+      <c r="A557" s="5"/>
     </row>
     <row r="558">
-      <c r="A558" s="4"/>
+      <c r="A558" s="5"/>
     </row>
     <row r="559">
-      <c r="A559" s="4"/>
+      <c r="A559" s="5"/>
     </row>
     <row r="560">
-      <c r="A560" s="4"/>
+      <c r="A560" s="5"/>
     </row>
     <row r="561">
-      <c r="A561" s="4"/>
+      <c r="A561" s="5"/>
     </row>
     <row r="562">
-      <c r="A562" s="4"/>
+      <c r="A562" s="5"/>
     </row>
     <row r="563">
-      <c r="A563" s="4"/>
+      <c r="A563" s="5"/>
     </row>
     <row r="564">
-      <c r="A564" s="4"/>
+      <c r="A564" s="5"/>
     </row>
     <row r="565">
-      <c r="A565" s="4"/>
+      <c r="A565" s="5"/>
     </row>
     <row r="566">
-      <c r="A566" s="4"/>
+      <c r="A566" s="5"/>
     </row>
     <row r="567">
-      <c r="A567" s="4"/>
+      <c r="A567" s="5"/>
     </row>
     <row r="568">
-      <c r="A568" s="4"/>
+      <c r="A568" s="5"/>
     </row>
     <row r="569">
-      <c r="A569" s="4"/>
+      <c r="A569" s="5"/>
     </row>
     <row r="570">
-      <c r="A570" s="4"/>
+      <c r="A570" s="5"/>
     </row>
     <row r="571">
-      <c r="A571" s="4"/>
+      <c r="A571" s="5"/>
     </row>
     <row r="572">
-      <c r="A572" s="4"/>
+      <c r="A572" s="5"/>
     </row>
     <row r="573">
-      <c r="A573" s="4"/>
+      <c r="A573" s="5"/>
     </row>
     <row r="574">
-      <c r="A574" s="4"/>
+      <c r="A574" s="5"/>
     </row>
     <row r="575">
-      <c r="A575" s="4"/>
+      <c r="A575" s="5"/>
     </row>
     <row r="576">
-      <c r="A576" s="4"/>
+      <c r="A576" s="5"/>
     </row>
     <row r="577">
-      <c r="A577" s="4"/>
+      <c r="A577" s="5"/>
     </row>
     <row r="578">
-      <c r="A578" s="4"/>
+      <c r="A578" s="5"/>
     </row>
     <row r="579">
-      <c r="A579" s="4"/>
+      <c r="A579" s="5"/>
     </row>
     <row r="580">
-      <c r="A580" s="4"/>
+      <c r="A580" s="5"/>
     </row>
     <row r="581">
-      <c r="A581" s="4"/>
+      <c r="A581" s="5"/>
     </row>
     <row r="582">
-      <c r="A582" s="4"/>
+      <c r="A582" s="5"/>
     </row>
     <row r="583">
-      <c r="A583" s="4"/>
+      <c r="A583" s="5"/>
     </row>
     <row r="584">
-      <c r="A584" s="4"/>
+      <c r="A584" s="5"/>
     </row>
     <row r="585">
-      <c r="A585" s="4"/>
+      <c r="A585" s="5"/>
     </row>
     <row r="586">
-      <c r="A586" s="4"/>
+      <c r="A586" s="5"/>
     </row>
     <row r="587">
-      <c r="A587" s="4"/>
+      <c r="A587" s="5"/>
     </row>
     <row r="588">
-      <c r="A588" s="4"/>
+      <c r="A588" s="5"/>
     </row>
     <row r="589">
-      <c r="A589" s="4"/>
+      <c r="A589" s="5"/>
     </row>
     <row r="590">
-      <c r="A590" s="4"/>
+      <c r="A590" s="5"/>
     </row>
     <row r="591">
-      <c r="A591" s="4"/>
+      <c r="A591" s="5"/>
     </row>
     <row r="592">
-      <c r="A592" s="4"/>
+      <c r="A592" s="5"/>
     </row>
     <row r="593">
-      <c r="A593" s="4"/>
+      <c r="A593" s="5"/>
     </row>
     <row r="594">
-      <c r="A594" s="4"/>
+      <c r="A594" s="5"/>
     </row>
     <row r="595">
-      <c r="A595" s="4"/>
+      <c r="A595" s="5"/>
     </row>
     <row r="596">
-      <c r="A596" s="4"/>
+      <c r="A596" s="5"/>
     </row>
     <row r="597">
-      <c r="A597" s="4"/>
+      <c r="A597" s="5"/>
     </row>
     <row r="598">
-      <c r="A598" s="4"/>
+      <c r="A598" s="5"/>
     </row>
     <row r="599">
-      <c r="A599" s="4"/>
+      <c r="A599" s="5"/>
     </row>
     <row r="600">
-      <c r="A600" s="4"/>
+      <c r="A600" s="5"/>
     </row>
     <row r="601">
-      <c r="A601" s="4"/>
+      <c r="A601" s="5"/>
     </row>
     <row r="602">
-      <c r="A602" s="4"/>
+      <c r="A602" s="5"/>
     </row>
     <row r="603">
-      <c r="A603" s="4"/>
+      <c r="A603" s="5"/>
     </row>
     <row r="604">
-      <c r="A604" s="4"/>
+      <c r="A604" s="5"/>
     </row>
     <row r="605">
-      <c r="A605" s="4"/>
+      <c r="A605" s="5"/>
     </row>
     <row r="606">
-      <c r="A606" s="4"/>
+      <c r="A606" s="5"/>
     </row>
     <row r="607">
-      <c r="A607" s="4"/>
+      <c r="A607" s="5"/>
     </row>
     <row r="608">
-      <c r="A608" s="4"/>
+      <c r="A608" s="5"/>
     </row>
     <row r="609">
-      <c r="A609" s="4"/>
+      <c r="A609" s="5"/>
     </row>
     <row r="610">
-      <c r="A610" s="4"/>
+      <c r="A610" s="5"/>
     </row>
     <row r="611">
-      <c r="A611" s="4"/>
+      <c r="A611" s="5"/>
     </row>
     <row r="612">
-      <c r="A612" s="4"/>
+      <c r="A612" s="5"/>
     </row>
     <row r="613">
-      <c r="A613" s="4"/>
+      <c r="A613" s="5"/>
     </row>
     <row r="614">
-      <c r="A614" s="4"/>
+      <c r="A614" s="5"/>
     </row>
     <row r="615">
-      <c r="A615" s="4"/>
+      <c r="A615" s="5"/>
     </row>
     <row r="616">
-      <c r="A616" s="4"/>
+      <c r="A616" s="5"/>
     </row>
     <row r="617">
-      <c r="A617" s="4"/>
+      <c r="A617" s="5"/>
     </row>
     <row r="618">
-      <c r="A618" s="4"/>
+      <c r="A618" s="5"/>
     </row>
     <row r="619">
-      <c r="A619" s="4"/>
+      <c r="A619" s="5"/>
     </row>
     <row r="620">
-      <c r="A620" s="4"/>
+      <c r="A620" s="5"/>
     </row>
     <row r="621">
-      <c r="A621" s="4"/>
+      <c r="A621" s="5"/>
     </row>
     <row r="622">
-      <c r="A622" s="4"/>
+      <c r="A622" s="5"/>
     </row>
     <row r="623">
-      <c r="A623" s="4"/>
+      <c r="A623" s="5"/>
     </row>
     <row r="624">
-      <c r="A624" s="4"/>
+      <c r="A624" s="5"/>
     </row>
     <row r="625">
-      <c r="A625" s="4"/>
+      <c r="A625" s="5"/>
     </row>
     <row r="626">
-      <c r="A626" s="4"/>
+      <c r="A626" s="5"/>
     </row>
     <row r="627">
-      <c r="A627" s="4"/>
+      <c r="A627" s="5"/>
     </row>
     <row r="628">
-      <c r="A628" s="4"/>
+      <c r="A628" s="5"/>
     </row>
     <row r="629">
-      <c r="A629" s="4"/>
+      <c r="A629" s="5"/>
     </row>
     <row r="630">
-      <c r="A630" s="4"/>
+      <c r="A630" s="5"/>
     </row>
     <row r="631">
-      <c r="A631" s="4"/>
+      <c r="A631" s="5"/>
     </row>
     <row r="632">
-      <c r="A632" s="4"/>
+      <c r="A632" s="5"/>
     </row>
     <row r="633">
-      <c r="A633" s="4"/>
+      <c r="A633" s="5"/>
     </row>
     <row r="634">
-      <c r="A634" s="4"/>
+      <c r="A634" s="5"/>
     </row>
     <row r="635">
-      <c r="A635" s="4"/>
+      <c r="A635" s="5"/>
     </row>
     <row r="636">
-      <c r="A636" s="4"/>
+      <c r="A636" s="5"/>
     </row>
     <row r="637">
-      <c r="A637" s="4"/>
+      <c r="A637" s="5"/>
     </row>
     <row r="638">
-      <c r="A638" s="4"/>
+      <c r="A638" s="5"/>
     </row>
     <row r="639">
-      <c r="A639" s="4"/>
+      <c r="A639" s="5"/>
     </row>
     <row r="640">
-      <c r="A640" s="4"/>
+      <c r="A640" s="5"/>
     </row>
     <row r="641">
-      <c r="A641" s="4"/>
+      <c r="A641" s="5"/>
     </row>
     <row r="642">
-      <c r="A642" s="4"/>
+      <c r="A642" s="5"/>
     </row>
     <row r="643">
-      <c r="A643" s="4"/>
+      <c r="A643" s="5"/>
     </row>
     <row r="644">
-      <c r="A644" s="4"/>
+      <c r="A644" s="5"/>
     </row>
     <row r="645">
-      <c r="A645" s="4"/>
+      <c r="A645" s="5"/>
     </row>
     <row r="646">
-      <c r="A646" s="4"/>
+      <c r="A646" s="5"/>
     </row>
     <row r="647">
-      <c r="A647" s="4"/>
+      <c r="A647" s="5"/>
     </row>
     <row r="648">
-      <c r="A648" s="4"/>
+      <c r="A648" s="5"/>
     </row>
     <row r="649">
-      <c r="A649" s="4"/>
+      <c r="A649" s="5"/>
     </row>
     <row r="650">
-      <c r="A650" s="4"/>
+      <c r="A650" s="5"/>
     </row>
     <row r="651">
-      <c r="A651" s="4"/>
+      <c r="A651" s="5"/>
     </row>
     <row r="652">
-      <c r="A652" s="4"/>
+      <c r="A652" s="5"/>
     </row>
     <row r="653">
-      <c r="A653" s="4"/>
+      <c r="A653" s="5"/>
     </row>
     <row r="654">
-      <c r="A654" s="4"/>
+      <c r="A654" s="5"/>
     </row>
     <row r="655">
-      <c r="A655" s="4"/>
+      <c r="A655" s="5"/>
     </row>
     <row r="656">
-      <c r="A656" s="4"/>
+      <c r="A656" s="5"/>
     </row>
     <row r="657">
-      <c r="A657" s="4"/>
+      <c r="A657" s="5"/>
     </row>
     <row r="658">
-      <c r="A658" s="4"/>
+      <c r="A658" s="5"/>
     </row>
     <row r="659">
-      <c r="A659" s="4"/>
+      <c r="A659" s="5"/>
     </row>
     <row r="660">
-      <c r="A660" s="4"/>
+      <c r="A660" s="5"/>
     </row>
     <row r="661">
-      <c r="A661" s="4"/>
+      <c r="A661" s="5"/>
     </row>
     <row r="662">
-      <c r="A662" s="4"/>
+      <c r="A662" s="5"/>
     </row>
     <row r="663">
-      <c r="A663" s="4"/>
+      <c r="A663" s="5"/>
     </row>
     <row r="664">
-      <c r="A664" s="4"/>
+      <c r="A664" s="5"/>
     </row>
     <row r="665">
-      <c r="A665" s="4"/>
+      <c r="A665" s="5"/>
     </row>
     <row r="666">
-      <c r="A666" s="4"/>
+      <c r="A666" s="5"/>
     </row>
     <row r="667">
-      <c r="A667" s="4"/>
+      <c r="A667" s="5"/>
     </row>
     <row r="668">
-      <c r="A668" s="4"/>
+      <c r="A668" s="5"/>
     </row>
     <row r="669">
-      <c r="A669" s="4"/>
+      <c r="A669" s="5"/>
     </row>
     <row r="670">
-      <c r="A670" s="4"/>
+      <c r="A670" s="5"/>
     </row>
     <row r="671">
-      <c r="A671" s="4"/>
+      <c r="A671" s="5"/>
     </row>
     <row r="672">
-      <c r="A672" s="4"/>
+      <c r="A672" s="5"/>
     </row>
     <row r="673">
-      <c r="A673" s="4"/>
+      <c r="A673" s="5"/>
     </row>
     <row r="674">
-      <c r="A674" s="4"/>
+      <c r="A674" s="5"/>
     </row>
     <row r="675">
-      <c r="A675" s="4"/>
+      <c r="A675" s="5"/>
     </row>
     <row r="676">
-      <c r="A676" s="4"/>
+      <c r="A676" s="5"/>
     </row>
     <row r="677">
-      <c r="A677" s="4"/>
+      <c r="A677" s="5"/>
     </row>
     <row r="678">
-      <c r="A678" s="4"/>
+      <c r="A678" s="5"/>
     </row>
     <row r="679">
-      <c r="A679" s="4"/>
+      <c r="A679" s="5"/>
     </row>
     <row r="680">
-      <c r="A680" s="4"/>
+      <c r="A680" s="5"/>
     </row>
     <row r="681">
-      <c r="A681" s="4"/>
+      <c r="A681" s="5"/>
     </row>
     <row r="682">
-      <c r="A682" s="4"/>
+      <c r="A682" s="5"/>
     </row>
     <row r="683">
-      <c r="A683" s="4"/>
+      <c r="A683" s="5"/>
     </row>
     <row r="684">
-      <c r="A684" s="4"/>
+      <c r="A684" s="5"/>
     </row>
     <row r="685">
-      <c r="A685" s="4"/>
+      <c r="A685" s="5"/>
     </row>
     <row r="686">
-      <c r="A686" s="4"/>
+      <c r="A686" s="5"/>
     </row>
     <row r="687">
-      <c r="A687" s="4"/>
+      <c r="A687" s="5"/>
     </row>
     <row r="688">
-      <c r="A688" s="4"/>
+      <c r="A688" s="5"/>
     </row>
     <row r="689">
-      <c r="A689" s="4"/>
+      <c r="A689" s="5"/>
     </row>
     <row r="690">
-      <c r="A690" s="4"/>
+      <c r="A690" s="5"/>
     </row>
     <row r="691">
-      <c r="A691" s="4"/>
+      <c r="A691" s="5"/>
     </row>
     <row r="692">
-      <c r="A692" s="4"/>
+      <c r="A692" s="5"/>
     </row>
     <row r="693">
-      <c r="A693" s="4"/>
+      <c r="A693" s="5"/>
     </row>
     <row r="694">
-      <c r="A694" s="4"/>
+      <c r="A694" s="5"/>
     </row>
     <row r="695">
-      <c r="A695" s="4"/>
+      <c r="A695" s="5"/>
     </row>
     <row r="696">
-      <c r="A696" s="4"/>
+      <c r="A696" s="5"/>
     </row>
     <row r="697">
-      <c r="A697" s="4"/>
+      <c r="A697" s="5"/>
     </row>
     <row r="698">
-      <c r="A698" s="4"/>
+      <c r="A698" s="5"/>
     </row>
     <row r="699">
-      <c r="A699" s="4"/>
+      <c r="A699" s="5"/>
     </row>
     <row r="700">
-      <c r="A700" s="4"/>
+      <c r="A700" s="5"/>
     </row>
     <row r="701">
-      <c r="A701" s="4"/>
+      <c r="A701" s="5"/>
     </row>
     <row r="702">
-      <c r="A702" s="4"/>
+      <c r="A702" s="5"/>
     </row>
     <row r="703">
-      <c r="A703" s="4"/>
+      <c r="A703" s="5"/>
     </row>
     <row r="704">
-      <c r="A704" s="4"/>
+      <c r="A704" s="5"/>
     </row>
     <row r="705">
-      <c r="A705" s="4"/>
+      <c r="A705" s="5"/>
     </row>
     <row r="706">
-      <c r="A706" s="4"/>
+      <c r="A706" s="5"/>
     </row>
     <row r="707">
-      <c r="A707" s="4"/>
+      <c r="A707" s="5"/>
     </row>
     <row r="708">
-      <c r="A708" s="4"/>
+      <c r="A708" s="5"/>
     </row>
     <row r="709">
-      <c r="A709" s="4"/>
+      <c r="A709" s="5"/>
     </row>
     <row r="710">
-      <c r="A710" s="4"/>
+      <c r="A710" s="5"/>
     </row>
     <row r="711">
-      <c r="A711" s="4"/>
+      <c r="A711" s="5"/>
     </row>
     <row r="712">
-      <c r="A712" s="4"/>
+      <c r="A712" s="5"/>
     </row>
     <row r="713">
-      <c r="A713" s="4"/>
+      <c r="A713" s="5"/>
     </row>
     <row r="714">
-      <c r="A714" s="4"/>
+      <c r="A714" s="5"/>
     </row>
     <row r="715">
-      <c r="A715" s="4"/>
+      <c r="A715" s="5"/>
     </row>
     <row r="716">
-      <c r="A716" s="4"/>
+      <c r="A716" s="5"/>
     </row>
     <row r="717">
-      <c r="A717" s="4"/>
+      <c r="A717" s="5"/>
     </row>
     <row r="718">
-      <c r="A718" s="4"/>
+      <c r="A718" s="5"/>
     </row>
     <row r="719">
-      <c r="A719" s="4"/>
+      <c r="A719" s="5"/>
     </row>
     <row r="720">
-      <c r="A720" s="4"/>
+      <c r="A720" s="5"/>
     </row>
     <row r="721">
-      <c r="A721" s="4"/>
+      <c r="A721" s="5"/>
     </row>
     <row r="722">
-      <c r="A722" s="4"/>
+      <c r="A722" s="5"/>
     </row>
     <row r="723">
-      <c r="A723" s="4"/>
+      <c r="A723" s="5"/>
     </row>
     <row r="724">
-      <c r="A724" s="4"/>
+      <c r="A724" s="5"/>
     </row>
     <row r="725">
-      <c r="A725" s="4"/>
+      <c r="A725" s="5"/>
     </row>
     <row r="726">
-      <c r="A726" s="4"/>
+      <c r="A726" s="5"/>
     </row>
     <row r="727">
-      <c r="A727" s="4"/>
+      <c r="A727" s="5"/>
     </row>
     <row r="728">
-      <c r="A728" s="4"/>
+      <c r="A728" s="5"/>
     </row>
     <row r="729">
-      <c r="A729" s="4"/>
+      <c r="A729" s="5"/>
     </row>
     <row r="730">
-      <c r="A730" s="4"/>
+      <c r="A730" s="5"/>
     </row>
     <row r="731">
-      <c r="A731" s="4"/>
+      <c r="A731" s="5"/>
     </row>
     <row r="732">
-      <c r="A732" s="4"/>
+      <c r="A732" s="5"/>
     </row>
     <row r="733">
-      <c r="A733" s="4"/>
+      <c r="A733" s="5"/>
     </row>
     <row r="734">
-      <c r="A734" s="4"/>
+      <c r="A734" s="5"/>
     </row>
     <row r="735">
-      <c r="A735" s="4"/>
+      <c r="A735" s="5"/>
     </row>
     <row r="736">
-      <c r="A736" s="4"/>
+      <c r="A736" s="5"/>
     </row>
     <row r="737">
-      <c r="A737" s="4"/>
+      <c r="A737" s="5"/>
     </row>
     <row r="738">
-      <c r="A738" s="4"/>
+      <c r="A738" s="5"/>
     </row>
     <row r="739">
-      <c r="A739" s="4"/>
+      <c r="A739" s="5"/>
     </row>
     <row r="740">
-      <c r="A740" s="4"/>
+      <c r="A740" s="5"/>
     </row>
     <row r="741">
-      <c r="A741" s="4"/>
+      <c r="A741" s="5"/>
     </row>
     <row r="742">
-      <c r="A742" s="4"/>
+      <c r="A742" s="5"/>
     </row>
     <row r="743">
-      <c r="A743" s="4"/>
+      <c r="A743" s="5"/>
     </row>
     <row r="744">
-      <c r="A744" s="4"/>
+      <c r="A744" s="5"/>
     </row>
     <row r="745">
-      <c r="A745" s="4"/>
+      <c r="A745" s="5"/>
     </row>
     <row r="746">
-      <c r="A746" s="4"/>
+      <c r="A746" s="5"/>
     </row>
     <row r="747">
-      <c r="A747" s="4"/>
+      <c r="A747" s="5"/>
     </row>
     <row r="748">
-      <c r="A748" s="4"/>
+      <c r="A748" s="5"/>
     </row>
     <row r="749">
-      <c r="A749" s="4"/>
+      <c r="A749" s="5"/>
     </row>
     <row r="750">
-      <c r="A750" s="4"/>
+      <c r="A750" s="5"/>
     </row>
     <row r="751">
-      <c r="A751" s="4"/>
+      <c r="A751" s="5"/>
     </row>
     <row r="752">
-      <c r="A752" s="4"/>
+      <c r="A752" s="5"/>
     </row>
     <row r="753">
-      <c r="A753" s="4"/>
+      <c r="A753" s="5"/>
     </row>
     <row r="754">
-      <c r="A754" s="4"/>
+      <c r="A754" s="5"/>
     </row>
     <row r="755">
-      <c r="A755" s="4"/>
+      <c r="A755" s="5"/>
     </row>
     <row r="756">
-      <c r="A756" s="4"/>
+      <c r="A756" s="5"/>
     </row>
     <row r="757">
-      <c r="A757" s="4"/>
+      <c r="A757" s="5"/>
     </row>
     <row r="758">
-      <c r="A758" s="4"/>
+      <c r="A758" s="5"/>
     </row>
     <row r="759">
-      <c r="A759" s="4"/>
+      <c r="A759" s="5"/>
     </row>
     <row r="760">
-      <c r="A760" s="4"/>
+      <c r="A760" s="5"/>
     </row>
     <row r="761">
-      <c r="A761" s="4"/>
+      <c r="A761" s="5"/>
     </row>
     <row r="762">
-      <c r="A762" s="4"/>
+      <c r="A762" s="5"/>
     </row>
     <row r="763">
-      <c r="A763" s="4"/>
+      <c r="A763" s="5"/>
     </row>
     <row r="764">
-      <c r="A764" s="4"/>
+      <c r="A764" s="5"/>
     </row>
     <row r="765">
-      <c r="A765" s="4"/>
+      <c r="A765" s="5"/>
     </row>
     <row r="766">
-      <c r="A766" s="4"/>
+      <c r="A766" s="5"/>
     </row>
     <row r="767">
-      <c r="A767" s="4"/>
+      <c r="A767" s="5"/>
     </row>
     <row r="768">
-      <c r="A768" s="4"/>
+      <c r="A768" s="5"/>
     </row>
     <row r="769">
-      <c r="A769" s="4"/>
+      <c r="A769" s="5"/>
     </row>
     <row r="770">
-      <c r="A770" s="4"/>
+      <c r="A770" s="5"/>
     </row>
     <row r="771">
-      <c r="A771" s="4"/>
+      <c r="A771" s="5"/>
     </row>
     <row r="772">
-      <c r="A772" s="4"/>
+      <c r="A772" s="5"/>
     </row>
     <row r="773">
-      <c r="A773" s="4"/>
+      <c r="A773" s="5"/>
     </row>
     <row r="774">
-      <c r="A774" s="4"/>
+      <c r="A774" s="5"/>
     </row>
     <row r="775">
-      <c r="A775" s="4"/>
+      <c r="A775" s="5"/>
     </row>
     <row r="776">
-      <c r="A776" s="4"/>
+      <c r="A776" s="5"/>
     </row>
     <row r="777">
-      <c r="A777" s="4"/>
+      <c r="A777" s="5"/>
     </row>
     <row r="778">
-      <c r="A778" s="4"/>
+      <c r="A778" s="5"/>
     </row>
     <row r="779">
-      <c r="A779" s="4"/>
+      <c r="A779" s="5"/>
     </row>
     <row r="780">
-      <c r="A780" s="4"/>
+      <c r="A780" s="5"/>
     </row>
     <row r="781">
-      <c r="A781" s="4"/>
+      <c r="A781" s="5"/>
     </row>
     <row r="782">
-      <c r="A782" s="4"/>
+      <c r="A782" s="5"/>
     </row>
     <row r="783">
-      <c r="A783" s="4"/>
+      <c r="A783" s="5"/>
     </row>
     <row r="784">
-      <c r="A784" s="4"/>
+      <c r="A784" s="5"/>
     </row>
     <row r="785">
-      <c r="A785" s="4"/>
+      <c r="A785" s="5"/>
     </row>
     <row r="786">
-      <c r="A786" s="4"/>
+      <c r="A786" s="5"/>
     </row>
     <row r="787">
-      <c r="A787" s="4"/>
+      <c r="A787" s="5"/>
     </row>
     <row r="788">
-      <c r="A788" s="4"/>
+      <c r="A788" s="5"/>
     </row>
     <row r="789">
-      <c r="A789" s="4"/>
+      <c r="A789" s="5"/>
     </row>
     <row r="790">
-      <c r="A790" s="4"/>
+      <c r="A790" s="5"/>
     </row>
     <row r="791">
-      <c r="A791" s="4"/>
+      <c r="A791" s="5"/>
     </row>
     <row r="792">
-      <c r="A792" s="4"/>
+      <c r="A792" s="5"/>
     </row>
     <row r="793">
-      <c r="A793" s="4"/>
+      <c r="A793" s="5"/>
     </row>
     <row r="794">
-      <c r="A794" s="4"/>
+      <c r="A794" s="5"/>
     </row>
     <row r="795">
-      <c r="A795" s="4"/>
+      <c r="A795" s="5"/>
     </row>
     <row r="796">
-      <c r="A796" s="4"/>
+      <c r="A796" s="5"/>
     </row>
     <row r="797">
-      <c r="A797" s="4"/>
+      <c r="A797" s="5"/>
     </row>
     <row r="798">
-      <c r="A798" s="4"/>
+      <c r="A798" s="5"/>
     </row>
     <row r="799">
-      <c r="A799" s="4"/>
+      <c r="A799" s="5"/>
     </row>
     <row r="800">
-      <c r="A800" s="4"/>
+      <c r="A800" s="5"/>
     </row>
     <row r="801">
-      <c r="A801" s="4"/>
+      <c r="A801" s="5"/>
     </row>
     <row r="802">
-      <c r="A802" s="4"/>
+      <c r="A802" s="5"/>
     </row>
     <row r="803">
-      <c r="A803" s="4"/>
+      <c r="A803" s="5"/>
     </row>
     <row r="804">
-      <c r="A804" s="4"/>
+      <c r="A804" s="5"/>
     </row>
     <row r="805">
-      <c r="A805" s="4"/>
+      <c r="A805" s="5"/>
     </row>
     <row r="806">
-      <c r="A806" s="4"/>
+      <c r="A806" s="5"/>
     </row>
     <row r="807">
-      <c r="A807" s="4"/>
+      <c r="A807" s="5"/>
     </row>
     <row r="808">
-      <c r="A808" s="4"/>
+      <c r="A808" s="5"/>
     </row>
     <row r="809">
-      <c r="A809" s="4"/>
+      <c r="A809" s="5"/>
     </row>
     <row r="810">
-      <c r="A810" s="4"/>
+      <c r="A810" s="5"/>
     </row>
     <row r="811">
-      <c r="A811" s="4"/>
+      <c r="A811" s="5"/>
     </row>
     <row r="812">
-      <c r="A812" s="4"/>
+      <c r="A812" s="5"/>
     </row>
     <row r="813">
-      <c r="A813" s="4"/>
+      <c r="A813" s="5"/>
     </row>
     <row r="814">
-      <c r="A814" s="4"/>
+      <c r="A814" s="5"/>
     </row>
     <row r="815">
-      <c r="A815" s="4"/>
+      <c r="A815" s="5"/>
     </row>
     <row r="816">
-      <c r="A816" s="4"/>
+      <c r="A816" s="5"/>
     </row>
     <row r="817">
-      <c r="A817" s="4"/>
+      <c r="A817" s="5"/>
     </row>
     <row r="818">
-      <c r="A818" s="4"/>
+      <c r="A818" s="5"/>
     </row>
     <row r="819">
-      <c r="A819" s="4"/>
+      <c r="A819" s="5"/>
     </row>
     <row r="820">
-      <c r="A820" s="4"/>
+      <c r="A820" s="5"/>
     </row>
     <row r="821">
-      <c r="A821" s="4"/>
+      <c r="A821" s="5"/>
     </row>
     <row r="822">
-      <c r="A822" s="4"/>
+      <c r="A822" s="5"/>
     </row>
     <row r="823">
-      <c r="A823" s="4"/>
+      <c r="A823" s="5"/>
     </row>
     <row r="824">
-      <c r="A824" s="4"/>
+      <c r="A824" s="5"/>
     </row>
     <row r="825">
-      <c r="A825" s="4"/>
+      <c r="A825" s="5"/>
     </row>
     <row r="826">
-      <c r="A826" s="4"/>
+      <c r="A826" s="5"/>
     </row>
     <row r="827">
-      <c r="A827" s="4"/>
+      <c r="A827" s="5"/>
     </row>
     <row r="828">
-      <c r="A828" s="4"/>
+      <c r="A828" s="5"/>
     </row>
     <row r="829">
-      <c r="A829" s="4"/>
+      <c r="A829" s="5"/>
     </row>
     <row r="830">
-      <c r="A830" s="4"/>
+      <c r="A830" s="5"/>
     </row>
     <row r="831">
-      <c r="A831" s="4"/>
+      <c r="A831" s="5"/>
     </row>
     <row r="832">
-      <c r="A832" s="4"/>
+      <c r="A832" s="5"/>
     </row>
     <row r="833">
-      <c r="A833" s="4"/>
+      <c r="A833" s="5"/>
     </row>
     <row r="834">
-      <c r="A834" s="4"/>
+      <c r="A834" s="5"/>
     </row>
     <row r="835">
-      <c r="A835" s="4"/>
+      <c r="A835" s="5"/>
     </row>
     <row r="836">
-      <c r="A836" s="4"/>
+      <c r="A836" s="5"/>
     </row>
     <row r="837">
-      <c r="A837" s="4"/>
+      <c r="A837" s="5"/>
     </row>
     <row r="838">
-      <c r="A838" s="4"/>
+      <c r="A838" s="5"/>
     </row>
     <row r="839">
-      <c r="A839" s="4"/>
+      <c r="A839" s="5"/>
     </row>
     <row r="840">
-      <c r="A840" s="4"/>
+      <c r="A840" s="5"/>
     </row>
     <row r="841">
-      <c r="A841" s="4"/>
+      <c r="A841" s="5"/>
     </row>
     <row r="842">
-      <c r="A842" s="4"/>
+      <c r="A842" s="5"/>
     </row>
     <row r="843">
-      <c r="A843" s="4"/>
+      <c r="A843" s="5"/>
     </row>
     <row r="844">
-      <c r="A844" s="4"/>
+      <c r="A844" s="5"/>
     </row>
     <row r="845">
-      <c r="A845" s="4"/>
+      <c r="A845" s="5"/>
     </row>
     <row r="846">
-      <c r="A846" s="4"/>
+      <c r="A846" s="5"/>
     </row>
     <row r="847">
-      <c r="A847" s="4"/>
+      <c r="A847" s="5"/>
     </row>
     <row r="848">
-      <c r="A848" s="4"/>
+      <c r="A848" s="5"/>
     </row>
     <row r="849">
-      <c r="A849" s="4"/>
+      <c r="A849" s="5"/>
     </row>
     <row r="850">
-      <c r="A850" s="4"/>
+      <c r="A850" s="5"/>
     </row>
     <row r="851">
-      <c r="A851" s="4"/>
+      <c r="A851" s="5"/>
     </row>
     <row r="852">
-      <c r="A852" s="4"/>
+      <c r="A852" s="5"/>
     </row>
     <row r="853">
-      <c r="A853" s="4"/>
+      <c r="A853" s="5"/>
     </row>
     <row r="854">
-      <c r="A854" s="4"/>
+      <c r="A854" s="5"/>
     </row>
     <row r="855">
-      <c r="A855" s="4"/>
+      <c r="A855" s="5"/>
     </row>
     <row r="856">
-      <c r="A856" s="4"/>
+      <c r="A856" s="5"/>
     </row>
     <row r="857">
-      <c r="A857" s="4"/>
+      <c r="A857" s="5"/>
     </row>
     <row r="858">
-      <c r="A858" s="4"/>
+      <c r="A858" s="5"/>
     </row>
     <row r="859">
-      <c r="A859" s="4"/>
+      <c r="A859" s="5"/>
     </row>
     <row r="860">
-      <c r="A860" s="4"/>
+      <c r="A860" s="5"/>
     </row>
     <row r="861">
-      <c r="A861" s="4"/>
+      <c r="A861" s="5"/>
     </row>
     <row r="862">
-      <c r="A862" s="4"/>
+      <c r="A862" s="5"/>
     </row>
     <row r="863">
-      <c r="A863" s="4"/>
+      <c r="A863" s="5"/>
     </row>
     <row r="864">
-      <c r="A864" s="4"/>
+      <c r="A864" s="5"/>
     </row>
     <row r="865">
-      <c r="A865" s="4"/>
+      <c r="A865" s="5"/>
     </row>
     <row r="866">
-      <c r="A866" s="4"/>
+      <c r="A866" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4003,43 +4009,43 @@
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="5" t="s">
+    <row r="3">
+      <c r="A3" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
+    <row r="4">
+      <c r="A4" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
+    <row r="5">
+      <c r="A5" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
+    <row r="6">
+      <c r="A6" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
+    <row r="7">
+      <c r="A7" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
+    <row r="8">
+      <c r="A8" s="6" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
